--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_023.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_023.xlsx
@@ -31,304 +31,316 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295025EK2.06) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(295001AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295005AA1.02) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AA2.04) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(700000AK2.07) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295030EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295027EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Safety relief valves</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295021AA1.04) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Alternate decay heat removal systems</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
+  </si>
+  <si>
+    <t>(295003AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Load shedding</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295038EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Control room heating, ventilation, and air conditioning</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
+  </si>
+  <si>
+    <t>(295026EK2.10) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(600000AA1.08) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Firefighting equipment used on each class of fire</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295037EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Standby liquid control system</t>
+  </si>
+  <si>
+    <t>(295007AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 41.10) Turbine load</t>
+  </si>
+  <si>
+    <t>(295034EK2.02) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Area radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295002AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Bypass valve closure</t>
+  </si>
+  <si>
+    <t>(295022AA2.01) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Accumulator pressure</t>
+  </si>
+  <si>
+    <t>(295013AA1.03) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002K4.05) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) P sat/T sat (compensation)</t>
+  </si>
+  <si>
+    <t>(300000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Condenser air removal system</t>
+  </si>
+  <si>
+    <t>(261000K3.03) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Primary containment pressure (Mark I and II)</t>
+  </si>
+  <si>
+    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(211000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) SLCS pressure/relief valve operation</t>
+  </si>
+  <si>
+    <t>(209002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(262001K2.02) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) AC breaker control power</t>
+  </si>
+  <si>
+    <t>(510000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Service water temperatures</t>
+  </si>
+  <si>
+    <t>(212000A4.18) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Transferring RPS power supplies</t>
+  </si>
+  <si>
+    <t>(205000K4.07) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) SDC minimum flow</t>
+  </si>
+  <si>
+    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(209001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t>(264000A2.08) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation of emergency generator room fire protection system</t>
+  </si>
+  <si>
+    <t>(215005A3.03) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Meters and recorders</t>
+  </si>
+  <si>
+    <t>(218000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Primary containment/drywell pressure</t>
+  </si>
+  <si>
+    <t>(223002K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Leak detection system</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291005K1.04) MOTORS AND GENERATORS (CFR: 41.7) Relationship between pump motor current (ammeter reading) and the following: pump fluid flow, head, speed, and stator temperature</t>
+  </si>
+  <si>
+    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
+  </si>
+  <si>
+    <t>(217000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(203000A4.15) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Room coolers</t>
+  </si>
+  <si>
+    <t>(259002K4.08) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) TDRFP speed control</t>
+  </si>
+  <si>
+    <t>(300000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(261000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Primary containment oxygen content (Mark I and II)</t>
+  </si>
+  <si>
+    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
+  </si>
+  <si>
+    <t>(268000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.5 / 45.5) Area radiation level</t>
+  </si>
+  <si>
+    <t>(219000A4.14) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Overrides for suppression pool cooling valve logic</t>
+  </si>
+  <si>
+    <t>(202002K4.11) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Adjustable speed drives/variable frequency drives</t>
+  </si>
+  <si>
+    <t>(201005K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(234000K3.01) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(215001A2.04) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC electrical distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(226001A3.01) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Valve operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(272000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.4) </t>
+  </si>
+  <si>
+    <t>(245000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Lube oil system</t>
+  </si>
+  <si>
+    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(290002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) Recirculation system</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
+  </si>
+  <si>
+    <t>(292004K1.11) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of void coefficient from changes in the following: --Core void fraction</t>
+  </si>
+  <si>
+    <t>(292008K1.04) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) Relate the concept of subcritical multiplication to predicted count rate and startup rate/period response for control rod withdrawal during the approach to criticality</t>
+  </si>
+  <si>
+    <t>(293009K1.02) CORE THERMAL LIMITS (CFR: 41.14) Explain axial peaking factor</t>
+  </si>
+  <si>
+    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
+  </si>
+  <si>
+    <t>(293007K1.03) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Explain the manner in which fluid films affects heat</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
   </si>
   <si>
-    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295019AK2.02) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
-  </si>
-  <si>
-    <t>(295031EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Automatic depressurization system actuation</t>
-  </si>
-  <si>
-    <t>(295026EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RCIC</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(600000AK2.11) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Gas treatment system</t>
-  </si>
-  <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295036EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Cause of the high water level</t>
-  </si>
-  <si>
-    <t>(295029EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295020AK2.06) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(295002AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Recirculation flow control system runbacks</t>
-  </si>
-  <si>
-    <t>(295007AA1.08) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(217000A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Rupture disc failure: exhaust-diaphragm</t>
-  </si>
-  <si>
-    <t>(261000K4.06) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Charcoal bed retention</t>
-  </si>
-  <si>
-    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(215004A4.08) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS channel bypass</t>
-  </si>
-  <si>
-    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(215005K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Effects of voids on LPRM indication</t>
-  </si>
-  <si>
-    <t>(262001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Bus voltage</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
-  </si>
-  <si>
-    <t>(215003K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) 24/48 volt DC power</t>
-  </si>
-  <si>
-    <t>(205000A2.12) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(259002K3.03) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(211000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel internals</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291001K1.04) VALVES (CFR: 41.3) The failed-valve positions for different operators (open, closed, and as-is positions; spring-loaded valves; hydraulically/ pneumatically controlled valves; electric motor-driven valves)</t>
-  </si>
-  <si>
-    <t>(263000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Hydrogen generation</t>
-  </si>
-  <si>
-    <t>(400000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW pressure</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(209001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) ECCS room cooler(s)</t>
-  </si>
-  <si>
-    <t>(217000A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power loss</t>
-  </si>
-  <si>
-    <t>(261000K4.01) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(215004A4.04) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS drive control switches</t>
-  </si>
-  <si>
-    <t>(219000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(233000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.7 / 45.7) NSSSS/PCIS</t>
-  </si>
-  <si>
-    <t>(259001A2.10) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Digital feedwater control malfunctions</t>
-  </si>
-  <si>
-    <t>(239003K4.06) Knowledge of (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Depressurization of main steam piping before routing leakage through system</t>
-  </si>
-  <si>
-    <t>(271000K3.03) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Condenser air removal</t>
-  </si>
-  <si>
-    <t>(245000A4.01) Ability to manually operate and/or monitor the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine lube oil pumps</t>
-  </si>
-  <si>
-    <t>(204000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.5 / 45.3) Feedback signals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(226001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) Suppression pool level </t>
-  </si>
-  <si>
-    <t>(288000K2.01) (SF9 PVS) PLANT VENTILATION SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Primary containment supply and exhaust fans</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000A2.09) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic or manual initiation failure</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201001A2.06) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Suction strainer(s) becoming plugged</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(230000A2.01) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate net positive suction/vortex limits</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292004K1.05) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the fuel temperature (Doppler) coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292008K1.01) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) List parameters that should be monitored and controlled during the approach to criticality</t>
-  </si>
-  <si>
-    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293008K1.07) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Define nucleate boiling, subcooled nucleate boiling, and bulk boiling</t>
-  </si>
-  <si>
-    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA2.09) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(209002A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(262001A2.01) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine/generator trip</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(256000A2.07) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High hotwell level</t>
-  </si>
-  <si>
-    <t>(234000A4.01) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(216000A2.14) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Partial or complete loss of recirculation flow</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K2</t>
@@ -337,33 +349,21 @@
     <t>K3</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295001</t>
   </si>
   <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
     <t>295018</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>201001</t>
   </si>
   <si>
     <t>202001</t>
   </si>
   <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>216000</t>
+    <t>230000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D35" t="s">
         <v>107</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>3.1</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D63" t="s">
         <v>107</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2330,7 +2330,7 @@
         <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
